--- a/uploads/5931fbc9-7edd-4b65-90b1-01a3470148cf.xlsx
+++ b/uploads/5931fbc9-7edd-4b65-90b1-01a3470148cf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdal\OneDrive\Documents\ContexturesSampleFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/super/Documents/Things/things-shell-demo/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{641AB7B5-7B18-4568-9399-3AFAA4D57C0C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B76B489-BA71-C94E-BDD3-61EF4B740E5B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="3525" windowWidth="20505" windowHeight="3540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6400" yWindow="460" windowWidth="32640" windowHeight="18080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="SampleNumbers" sheetId="9" r:id="rId3"/>
     <sheet name="MyLinks" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -630,7 +630,9 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Item"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Units"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Unit Cost"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Total"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Total">
+      <calculatedColumnFormula>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -960,86 +962,86 @@
   <sheetPr codeName="Sheet30"/>
   <dimension ref="B1:C26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="2.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="2.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="C9" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
       <c r="C12" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C14" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
         <v>48</v>
       </c>
@@ -1047,7 +1049,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
         <v>48</v>
       </c>
@@ -1055,19 +1057,19 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C22"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C23"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C24"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C25"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C26"/>
     </row>
   </sheetData>
@@ -1093,24 +1095,24 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="11.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
@@ -1133,7 +1135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>43106</v>
       </c>
@@ -1153,10 +1155,11 @@
         <v>1.99</v>
       </c>
       <c r="G2" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>189.05</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>43123</v>
       </c>
@@ -1176,10 +1179,11 @@
         <v>19.989999999999998</v>
       </c>
       <c r="G3" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>999.49999999999989</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>43140</v>
       </c>
@@ -1199,10 +1203,11 @@
         <v>4.99</v>
       </c>
       <c r="G4" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>179.64000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>43157</v>
       </c>
@@ -1222,10 +1227,11 @@
         <v>19.989999999999998</v>
       </c>
       <c r="G5" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>539.7299999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>43174</v>
       </c>
@@ -1245,10 +1251,11 @@
         <v>2.99</v>
       </c>
       <c r="G6" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>167.44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>43191</v>
       </c>
@@ -1268,10 +1275,11 @@
         <v>4.99</v>
       </c>
       <c r="G7" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>299.40000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>43208</v>
       </c>
@@ -1291,10 +1299,11 @@
         <v>1.99</v>
       </c>
       <c r="G8" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>149.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>43225</v>
       </c>
@@ -1314,10 +1323,11 @@
         <v>4.99</v>
       </c>
       <c r="G9" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>449.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>43242</v>
       </c>
@@ -1337,10 +1347,11 @@
         <v>1.99</v>
       </c>
       <c r="G10" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>63.68</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>43259</v>
       </c>
@@ -1360,10 +1371,11 @@
         <v>8.99</v>
       </c>
       <c r="G11" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>539.4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>43276</v>
       </c>
@@ -1383,10 +1395,11 @@
         <v>4.99</v>
       </c>
       <c r="G12" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>449.1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>43293</v>
       </c>
@@ -1406,10 +1419,11 @@
         <v>1.99</v>
       </c>
       <c r="G13" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>57.71</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>43310</v>
       </c>
@@ -1429,10 +1443,11 @@
         <v>19.989999999999998</v>
       </c>
       <c r="G14" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>1619.1899999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>43327</v>
       </c>
@@ -1452,10 +1467,11 @@
         <v>4.99</v>
       </c>
       <c r="G15" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>174.65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>43344</v>
       </c>
@@ -1475,10 +1491,11 @@
         <v>125</v>
       </c>
       <c r="G16" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>43361</v>
       </c>
@@ -1498,10 +1515,11 @@
         <v>15.99</v>
       </c>
       <c r="G17" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>255.84</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>43378</v>
       </c>
@@ -1521,10 +1539,11 @@
         <v>8.99</v>
       </c>
       <c r="G18" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>251.72</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>43395</v>
       </c>
@@ -1544,10 +1563,11 @@
         <v>8.99</v>
       </c>
       <c r="G19" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>575.36</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>43412</v>
       </c>
@@ -1567,10 +1587,11 @@
         <v>19.989999999999998</v>
       </c>
       <c r="G20" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>299.84999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>43429</v>
       </c>
@@ -1590,10 +1611,11 @@
         <v>4.99</v>
       </c>
       <c r="G21" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>479.04</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>43446</v>
       </c>
@@ -1613,10 +1635,11 @@
         <v>1.29</v>
       </c>
       <c r="G22" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>86.43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>43463</v>
       </c>
@@ -1636,10 +1659,11 @@
         <v>15.99</v>
       </c>
       <c r="G23" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>1183.26</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>43480</v>
       </c>
@@ -1659,10 +1683,11 @@
         <v>8.99</v>
       </c>
       <c r="G24" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>413.54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>43497</v>
       </c>
@@ -1682,10 +1707,11 @@
         <v>15</v>
       </c>
       <c r="G25" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>1305</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>43514</v>
       </c>
@@ -1705,10 +1731,11 @@
         <v>4.99</v>
       </c>
       <c r="G26" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>19.96</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>43531</v>
       </c>
@@ -1728,10 +1755,11 @@
         <v>19.989999999999998</v>
       </c>
       <c r="G27" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>139.92999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>43548</v>
       </c>
@@ -1751,10 +1779,11 @@
         <v>4.99</v>
       </c>
       <c r="G28" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>249.5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>43565</v>
       </c>
@@ -1774,10 +1803,11 @@
         <v>1.99</v>
       </c>
       <c r="G29" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>131.34</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>43582</v>
       </c>
@@ -1797,10 +1827,11 @@
         <v>4.99</v>
       </c>
       <c r="G30" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>479.04</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>43599</v>
       </c>
@@ -1820,10 +1851,11 @@
         <v>1.29</v>
       </c>
       <c r="G31" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>68.37</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <v>43616</v>
       </c>
@@ -1843,10 +1875,11 @@
         <v>8.99</v>
       </c>
       <c r="G32" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>719.2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <v>43633</v>
       </c>
@@ -1866,10 +1899,11 @@
         <v>125</v>
       </c>
       <c r="G33" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>625</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <v>43650</v>
       </c>
@@ -1889,10 +1923,11 @@
         <v>4.99</v>
       </c>
       <c r="G34" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>309.38</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <v>43667</v>
       </c>
@@ -1912,10 +1947,11 @@
         <v>12.49</v>
       </c>
       <c r="G35" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>686.95</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <v>43684</v>
       </c>
@@ -1935,10 +1971,11 @@
         <v>23.95</v>
       </c>
       <c r="G36" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>1005.9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <v>43701</v>
       </c>
@@ -1958,10 +1995,11 @@
         <v>275</v>
       </c>
       <c r="G37" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>825</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <v>43718</v>
       </c>
@@ -1981,10 +2019,11 @@
         <v>1.29</v>
       </c>
       <c r="G38" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>9.0300000000000011</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <v>43735</v>
       </c>
@@ -2004,10 +2043,11 @@
         <v>1.99</v>
       </c>
       <c r="G39" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>151.24</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <v>43752</v>
       </c>
@@ -2027,10 +2067,11 @@
         <v>19.989999999999998</v>
       </c>
       <c r="G40" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>1139.4299999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="15">
         <v>43769</v>
       </c>
@@ -2050,10 +2091,11 @@
         <v>1.29</v>
       </c>
       <c r="G41" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>18.060000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="15">
         <v>43786</v>
       </c>
@@ -2073,10 +2115,11 @@
         <v>4.99</v>
       </c>
       <c r="G42" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>54.89</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="15">
         <v>43803</v>
       </c>
@@ -2096,10 +2139,11 @@
         <v>19.989999999999998</v>
       </c>
       <c r="G43" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>1879.06</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="15">
         <v>43820</v>
       </c>
@@ -2119,6 +2163,7 @@
         <v>4.99</v>
       </c>
       <c r="G44" s="19">
+        <f>Table1[[#This Row],[Units]]*Table1[[#This Row],[Unit Cost]]</f>
         <v>139.72</v>
       </c>
     </row>
@@ -2144,27 +2189,27 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C1" s="23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C3" s="21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C5" s="25" t="s">
         <v>63</v>
       </c>
@@ -2173,7 +2218,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C6" s="25" t="s">
         <v>64</v>
       </c>
@@ -2182,29 +2227,29 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H7" s="34" t="s">
         <v>67</v>
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H8" s="24"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H9" s="24"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H10" s="24"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C13" s="26" t="s">
         <v>52</v>
       </c>
@@ -2229,21 +2274,21 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="29" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="41.5" style="28" customWidth="1"/>
     <col min="3" max="3" width="64" style="29" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="29"/>
+    <col min="4" max="16384" width="8.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:3" ht="19" x14ac:dyDescent="0.25">
       <c r="B2" s="30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
         <v>56</v>
       </c>
@@ -2251,7 +2296,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="31" t="s">
         <v>31</v>
       </c>
@@ -2259,7 +2304,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="31" t="s">
         <v>35</v>
       </c>
@@ -2267,7 +2312,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="31" t="s">
         <v>57</v>
       </c>
@@ -2275,7 +2320,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="31" t="s">
         <v>59</v>
       </c>
@@ -2283,7 +2328,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="31" t="s">
         <v>27</v>
       </c>
@@ -2291,15 +2336,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="32"/>
     </row>
-    <row r="10" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="19" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="31" t="s">
         <v>39</v>
       </c>
@@ -2307,7 +2352,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="31" t="s">
         <v>26</v>
       </c>
@@ -2315,7 +2360,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="31" t="s">
         <v>25</v>
       </c>
@@ -2323,7 +2368,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="31" t="s">
         <v>24</v>
       </c>
@@ -2331,15 +2376,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="32"/>
     </row>
-    <row r="16" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" ht="19" x14ac:dyDescent="0.25">
       <c r="B16" s="30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="33" t="s">
         <v>23</v>
       </c>
